--- a/doc/3D-Format.xlsx
+++ b/doc/3D-Format.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\Igor\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\3rd\Igor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="189">
   <si>
     <t>string</t>
   </si>
@@ -83,13 +83,7 @@
     <t>Switch Chunk</t>
   </si>
   <si>
-    <t>0x3000</t>
-  </si>
-  <si>
     <t>LOD-Chunk</t>
-  </si>
-  <si>
-    <t>0x4000</t>
   </si>
   <si>
     <t>* just contains children
@@ -98,12 +92,6 @@
   </si>
   <si>
     <t>similar to switch chunk but the application can decide which LODs to show even in parallel</t>
-  </si>
-  <si>
-    <t>Material-Chunk</t>
-  </si>
-  <si>
-    <t>0x3001</t>
   </si>
   <si>
     <t>not used just the base type definition. All other chunks derive from this</t>
@@ -612,23 +600,26 @@
     <t>the higher the value the later this material will be drawn</t>
   </si>
   <si>
-    <t>ParticleSystem Chunk</t>
-  </si>
-  <si>
     <t>shininess value 0.0f-128.0f</t>
   </si>
   <si>
     <t>0.0f</t>
   </si>
   <si>
-    <t>TODO would be nice to have texture coord mapped on specific texture units
+    <t>TODO would be nice to have texture coord mapped on specific textures and texture units
 TODO split target material from mesh; move everythign that is not mesh in to something like Object or Mesh Node and let it refer to the mesh</t>
+  </si>
+  <si>
+    <t>Emitter-Chunk</t>
+  </si>
+  <si>
+    <t>ParticleSystem-Chunk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$SFr.-807]&quot; &quot;#,##0.00;[Red][$SFr.-807]&quot; -&quot;#,##0.00"/>
   </numFmts>
@@ -869,6 +860,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -904,6 +912,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1082,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1101,16 +1126,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -1118,15 +1143,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1134,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1151,19 +1176,19 @@
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -1174,7 +1199,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -1185,7 +1210,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -1196,7 +1221,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -1205,12 +1230,12 @@
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
@@ -1234,16 +1259,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -1252,30 +1277,30 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="9"/>
       <c r="F20" s="11"/>
       <c r="G20" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1283,13 +1308,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1297,16 +1322,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1314,16 +1339,16 @@
     </row>
     <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1331,17 +1356,17 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1354,87 +1379,87 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
       <c r="F27" s="11"/>
       <c r="G27" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2">
         <v>4</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -1446,13 +1471,13 @@
     </row>
     <row r="33" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -1464,13 +1489,13 @@
     </row>
     <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -1482,13 +1507,13 @@
     </row>
     <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -1500,13 +1525,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -1518,19 +1543,19 @@
     </row>
     <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E37" s="2">
         <v>6</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1539,7 +1564,7 @@
         <v>Base Chunk</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>8</v>
@@ -1559,12 +1584,12 @@
       <c r="E40" s="9"/>
       <c r="F40" s="11"/>
       <c r="G40" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D41" s="1"/>
     </row>
@@ -1574,7 +1599,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10" t="s">
@@ -1584,7 +1609,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="11"/>
       <c r="G43" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1593,7 +1618,7 @@
         <v>Base Chunk</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
@@ -1604,17 +1629,17 @@
         <v>14</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E45" s="2">
         <f>4*4</f>
         <v>16</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1622,17 +1647,17 @@
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2">
         <f>4*4</f>
         <v>16</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1640,17 +1665,17 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E47" s="2">
         <f>4*4</f>
         <v>16</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1658,17 +1683,17 @@
         <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E48" s="2">
         <f>4*4</f>
         <v>16</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1681,13 +1706,13 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="9"/>
       <c r="F50" s="11"/>
       <c r="G50" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1696,7 +1721,7 @@
         <v>Base Chunk</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>8</v>
@@ -1704,19 +1729,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1725,17 +1750,17 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1744,7 +1769,7 @@
         <v>Base Chunk</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>8</v>
@@ -1752,13 +1777,13 @@
     </row>
     <row r="56" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -1769,32 +1794,32 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -1803,7 +1828,7 @@
         <v>Base Chunk</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>8</v>
@@ -1811,16 +1836,16 @@
     </row>
     <row r="61" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F61" s="18">
         <v>0</v>
@@ -1828,10 +1853,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>10</v>
@@ -1840,15 +1865,15 @@
         <v>3</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>10</v>
@@ -1857,15 +1882,15 @@
         <v>3</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>10</v>
@@ -1874,15 +1899,15 @@
         <v>3</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>10</v>
@@ -1891,35 +1916,35 @@
         <v>3</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E66" s="2">
         <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -1930,13 +1955,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -1947,13 +1972,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -1964,13 +1989,13 @@
     </row>
     <row r="70" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -1981,26 +2006,26 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E71" s="2">
         <v>12</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2">
         <v>4</v>
@@ -2011,11 +2036,11 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
@@ -2026,14 +2051,14 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>8</v>
@@ -2041,10 +2066,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E75" s="2">
         <v>4</v>
@@ -2055,16 +2080,16 @@
     </row>
     <row r="76" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>8</v>
@@ -2072,10 +2097,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E77" s="2">
         <v>4</v>
@@ -2086,16 +2111,16 @@
     </row>
     <row r="78" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>8</v>
@@ -2107,17 +2132,17 @@
     </row>
     <row r="80" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
@@ -2126,15 +2151,15 @@
         <v>Base Chunk</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>0</v>
@@ -2142,13 +2167,13 @@
     </row>
     <row r="83" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E83" s="16">
         <v>1</v>
@@ -2159,11 +2184,11 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E84" s="2">
         <v>1</v>
@@ -2174,13 +2199,13 @@
     </row>
     <row r="85" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
@@ -2188,30 +2213,30 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E87" s="2">
         <v>1</v>
@@ -2219,35 +2244,35 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E90" s="2">
         <v>1</v>
@@ -2255,28 +2280,28 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E92" s="2">
         <v>1</v>
@@ -2287,11 +2312,11 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E93" s="2">
         <v>1</v>
@@ -2302,11 +2327,11 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E94" s="2">
         <v>1</v>
@@ -2317,11 +2342,11 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E95" s="2">
         <v>1</v>
@@ -2332,11 +2357,11 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E96" s="2">
         <v>1</v>
@@ -2347,13 +2372,13 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E97" s="2">
         <v>1</v>
@@ -2364,13 +2389,13 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E98" s="2">
         <v>1</v>
@@ -2381,13 +2406,13 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E99" s="2">
         <v>1</v>
@@ -2398,13 +2423,13 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
@@ -2415,13 +2440,13 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E101" s="2">
         <v>1</v>
@@ -2432,13 +2457,13 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E102" s="2">
         <v>1</v>
@@ -2449,13 +2474,13 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E103" s="2">
         <v>1</v>
@@ -2466,13 +2491,13 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
@@ -2483,13 +2508,13 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E105" s="2">
         <v>1</v>
@@ -2500,11 +2525,11 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E106" s="2">
         <v>1</v>
@@ -2515,11 +2540,11 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E107" s="2">
         <v>1</v>
@@ -2530,11 +2555,11 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E108" s="2">
         <v>1</v>
@@ -2545,11 +2570,11 @@
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E109" s="2">
         <v>1</v>
@@ -2560,11 +2585,11 @@
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E110" s="2">
         <v>1</v>
@@ -2575,11 +2600,11 @@
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E111" s="2">
         <v>1</v>
@@ -2590,11 +2615,11 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E112" s="2">
         <v>1</v>
@@ -2605,11 +2630,11 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E113" s="2">
         <v>1</v>
@@ -2620,11 +2645,11 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E114" s="2">
         <v>1</v>
@@ -2635,11 +2660,11 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E115" s="2">
         <v>1</v>
@@ -2650,11 +2675,11 @@
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E116" s="2">
         <v>1</v>
@@ -2665,11 +2690,11 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E117" s="2">
         <v>1</v>
@@ -2680,11 +2705,11 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E118" s="2">
         <v>1</v>
@@ -2695,11 +2720,11 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E119" s="2">
         <v>1</v>
@@ -2710,11 +2735,11 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E120" s="2">
         <v>1</v>
@@ -2725,11 +2750,11 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E121" s="2">
         <v>1</v>
@@ -2740,11 +2765,11 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E122" s="2">
         <v>1</v>
@@ -2755,11 +2780,11 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
@@ -2770,11 +2795,11 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E124" s="2">
         <v>1</v>
@@ -2785,11 +2810,11 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E125" s="2">
         <v>1</v>
@@ -2800,11 +2825,11 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E126" s="2">
         <v>1</v>
@@ -2815,11 +2840,11 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E127" s="2">
         <v>1</v>
@@ -2830,11 +2855,11 @@
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E128" s="2">
         <v>1</v>
@@ -2845,11 +2870,11 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E129" s="2">
         <v>1</v>
@@ -2860,11 +2885,11 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E130" s="2">
         <v>1</v>
@@ -2875,11 +2900,11 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E131" s="2">
         <v>1</v>
@@ -2890,11 +2915,11 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E132" s="2">
         <v>1</v>
@@ -2908,12 +2933,9 @@
         <v>19</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D136" s="1"/>
-      <c r="F136" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C137" s="1"/>
@@ -2921,15 +2943,12 @@
     </row>
     <row r="138" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D138" s="1"/>
-      <c r="F138" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C139" s="1"/>
@@ -2941,19 +2960,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D141" s="1"/>
-      <c r="F141" s="3" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>188</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/doc/3D-Format.xlsx
+++ b/doc/3D-Format.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="167">
   <si>
     <t>string</t>
   </si>
@@ -470,36 +470,6 @@
     <t>CullFace</t>
   </si>
   <si>
-    <t>Fog</t>
-  </si>
-  <si>
-    <t>Lighting</t>
-  </si>
-  <si>
-    <t>Light0</t>
-  </si>
-  <si>
-    <t>Light1</t>
-  </si>
-  <si>
-    <t>Light2</t>
-  </si>
-  <si>
-    <t>Light3</t>
-  </si>
-  <si>
-    <t>Light4</t>
-  </si>
-  <si>
-    <t>Light5</t>
-  </si>
-  <si>
-    <t>Light6</t>
-  </si>
-  <si>
-    <t>Light7</t>
-  </si>
-  <si>
     <t>Texture2D0</t>
   </si>
   <si>
@@ -522,42 +492,6 @@
   </si>
   <si>
     <t>Texture2D7</t>
-  </si>
-  <si>
-    <t>Texture1D0</t>
-  </si>
-  <si>
-    <t>Texture1D1</t>
-  </si>
-  <si>
-    <t>Texture1D2</t>
-  </si>
-  <si>
-    <t>Texture1D3</t>
-  </si>
-  <si>
-    <t>Texture1D4</t>
-  </si>
-  <si>
-    <t>Texture1D5</t>
-  </si>
-  <si>
-    <t>Texture1D6</t>
-  </si>
-  <si>
-    <t>Texture1D7</t>
-  </si>
-  <si>
-    <t>ColorMaskRed</t>
-  </si>
-  <si>
-    <t>ColorMaskGreen</t>
-  </si>
-  <si>
-    <t>ColorMaskBlue</t>
-  </si>
-  <si>
-    <t>ColorMaskAlpha</t>
   </si>
   <si>
     <t>Wireframe</t>
@@ -1105,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1276,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
@@ -1379,7 +1313,7 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="9"/>
@@ -1813,7 +1747,7 @@
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="15" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -1924,7 +1858,7 @@
         <v>97</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>56</v>
@@ -1933,7 +1867,7 @@
         <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2136,7 +2070,7 @@
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="15" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -2167,10 +2101,10 @@
     </row>
     <row r="83" spans="2:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="17" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>25</v>
@@ -2374,9 +2308,7 @@
       <c r="B97" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C97" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>25</v>
       </c>
@@ -2391,9 +2323,7 @@
       <c r="B98" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C98" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
         <v>25</v>
       </c>
@@ -2408,9 +2338,7 @@
       <c r="B99" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C99" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
         <v>25</v>
       </c>
@@ -2425,9 +2353,7 @@
       <c r="B100" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C100" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
         <v>25</v>
       </c>
@@ -2442,9 +2368,7 @@
       <c r="B101" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C101" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
         <v>25</v>
       </c>
@@ -2459,9 +2383,7 @@
       <c r="B102" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C102" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
         <v>25</v>
       </c>
@@ -2476,9 +2398,7 @@
       <c r="B103" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C103" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
         <v>25</v>
       </c>
@@ -2493,9 +2413,7 @@
       <c r="B104" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C104" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
         <v>25</v>
       </c>
@@ -2510,9 +2428,7 @@
       <c r="B105" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C105" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
         <v>25</v>
       </c>
@@ -2600,10 +2516,9 @@
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E111" s="2">
@@ -2615,10 +2530,9 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E112" s="2">
@@ -2628,12 +2542,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E113" s="2">
@@ -2643,12 +2556,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E114" s="2">
@@ -2658,12 +2570,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E115" s="2">
@@ -2673,12 +2584,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E116" s="2">
@@ -2688,12 +2598,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E117" s="2">
@@ -2703,12 +2612,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E118" s="2">
@@ -2718,260 +2626,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B120" s="1" t="s">
+      <c r="C129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B121" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E123" s="2">
-        <v>1</v>
-      </c>
-      <c r="F123" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B124" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E124" s="2">
-        <v>1</v>
-      </c>
-      <c r="F124" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B125" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E125" s="2">
-        <v>1</v>
-      </c>
-      <c r="F125" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B126" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E126" s="2">
-        <v>1</v>
-      </c>
-      <c r="F126" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B127" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127" s="2">
-        <v>1</v>
-      </c>
-      <c r="F127" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B128" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128" s="2">
-        <v>1</v>
-      </c>
-      <c r="F128" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B129" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E129" s="2">
-        <v>1</v>
-      </c>
-      <c r="F129" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B130" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E130" s="2">
-        <v>1</v>
-      </c>
-      <c r="F130" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B131" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E131" s="2">
-        <v>1</v>
-      </c>
-      <c r="F131" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B132" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E132" s="2">
-        <v>1</v>
-      </c>
-      <c r="F132" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D136" s="1"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-    </row>
-    <row r="138" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="1"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C143" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>11</v>
       </c>
     </row>
